--- a/data/georgia_census/shida-qartli/gori/education_graduates.xlsx
+++ b/data/georgia_census/shida-qartli/gori/education_graduates.xlsx
@@ -1824,13 +1824,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B118DDA-F867-41DF-A583-A21DCA94E590}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDA51EA5-A6CE-476A-A78F-35D86D4A3498}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5838081-F72F-4512-B769-162AB1296935}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D662F50-7C8E-42DB-9D4A-9E451B1F2ED6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0E12FC2-F9F5-41AE-8907-C998DA65FA19}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6035843B-F139-4B40-927E-80F682CCE6B5}"/>
 </file>